--- a/Cisco-ASA-Documentation.xlsx
+++ b/Cisco-ASA-Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC029502-3682-460B-BF15-494769C14030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ED4371-7462-4E66-AEB7-7CEEC036D533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="648" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
   <si>
     <t>Command</t>
   </si>
@@ -1122,6 +1122,9 @@
   </si>
   <si>
     <t>Important rule: place NAT rules corectly!!!</t>
+  </si>
+  <si>
+    <t>Order is relevant only if here is a match!!!</t>
   </si>
 </sst>
 </file>
@@ -2717,7 +2720,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,6 +2944,9 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>160</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
